--- a/data/Cafeteria.xlsx
+++ b/data/Cafeteria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lafe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iceline\Desktop\database_project-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F66E22B-A87B-4573-8AE1-2BC0EE758A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ED34A8-DB7A-4D47-B0AF-16A747C94B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>cafeteria_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,82 @@
   </si>
   <si>
     <t>cafeteria_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松涛园食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春晖园食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南草坪食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学一食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学五食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北风味食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康乐园餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒲园食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鱼乡餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫荆园餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中大凯丰酒店(学人馆)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政楼食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学二食堂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,8 +155,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -361,26 +440,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Cafeteria.xlsx
+++ b/data/Cafeteria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iceline\Desktop\database_project-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iceline\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ED34A8-DB7A-4D47-B0AF-16A747C94B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CB4F73-A699-4301-8D83-D5B0E8686E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13032" yWindow="1656" windowWidth="10008" windowHeight="10596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>cafeteria_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,28 @@
   </si>
   <si>
     <t>学二食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西园食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东园食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荔园食堂</t>
+  </si>
+  <si>
+    <t>槿园食堂</t>
+  </si>
+  <si>
+    <t>若海食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榕园食堂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -686,6 +708,72 @@
         <v>2</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
